--- a/assets/files/CV8.xlsx
+++ b/assets/files/CV8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1998 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>18.686868686868689</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>56.565656565656568</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>16.161616161616163</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>7.0707070707070709</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>1.5151515151515151</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>198</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>27.659574468085108</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>51.063829787234042</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>17.553191489361701</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>2.6595744680851063</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>1.0638297872340425</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>188</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>23.05699481865285</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>53.8860103626943</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>16.839378238341968</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>4.9222797927461137</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>1.2953367875647668</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>39.516129032258064</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>30.241935483870968</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>10.483870967741936</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>18.951612903225808</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>0.80645161290322576</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>248</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>28.099173553719009</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>39.669421487603309</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>8.2644628099173545</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>22.314049586776861</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>1.6528925619834711</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>121</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>35.772357723577237</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>9.7560975609756095</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>20.054200542005422</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>1.084010840108401</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>11.337868480725623</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>42.176870748299322</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>32.879818594104307</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>7.7097505668934243</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>5.895691609977324</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>441</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>14.937759336099585</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>54.356846473029044</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>27.385892116182571</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>2.4896265560165975</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>0.82987551867219922</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>241</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>12.609970674486803</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>46.480938416422291</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>30.938416422287389</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>5.8651026392961878</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>4.1055718475073313</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>39.240506329113927</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>46.835443037974684</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>13.924050632911392</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>22.302158273381295</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>55.39568345323741</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>19.424460431654676</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>2.1582733812949639</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.71942446043165464</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>26.050420168067227</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>53.501400560224091</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>18.207282913165265</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>1.680672268907563</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.56022408963585435</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>9.1954022988505741</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>43.678160919540232</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>39.655172413793103</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>4.0229885057471266</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>174</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>21.495327102803738</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>28.971962616822431</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>37.383177570093459</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>5.6074766355140184</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>6.5420560747663554</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>107</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>13.87900355871886</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>38.078291814946617</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>38.790035587188612</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>4.2704626334519569</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>4.9822064056939501</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>8.2051282051282044</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>29.23076923076923</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>60.512820512820511</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>0.51282051282051277</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>1.5384615384615385</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>16.901408450704224</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>80.281690140845072</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>4.6568627450980395</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>22.794117647058822</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>70.833333333333329</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>0.24509803921568626</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>1.4705882352941178</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>9.3023255813953494</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>53.488372093023258</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>30.232558139534884</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>6.9767441860465116</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>11.009174311926605</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>52.293577981651374</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>34.250764525993887</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>1.5290519877675841</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>0.91743119266055051</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>10.810810810810811</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>52.432432432432435</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>33.783783783783782</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>2.1621621621621623</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>0.81081081081081086</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>10.204081632653061</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>49.795918367346935</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>32.653061224489797</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>4.4897959183673466</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>2.8571428571428572</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>245</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>14.388489208633093</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>51.079136690647481</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>28.057553956834532</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>5.7553956834532372</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>0.71942446043165464</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>11.71875</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>50.260416666666664</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>30.989583333333332</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>4.947916666666667</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>20.689655172413794</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>68.965517241379317</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>2.2988505747126435</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>8.0459770114942533</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>14.590747330960854</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>57.295373665480426</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>24.555160142348754</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>1.7793594306049823</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>1.7793594306049823</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>16.032608695652176</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>60.054347826086953</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>19.293478260869566</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>3.2608695652173911</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>1.3586956521739131</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>15</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>40.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>42</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>2.5</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>6.1111111111111107</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>37.222222222222221</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>56.666666666666664</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>180</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>10.789473684210526</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>38.94736842105263</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>48.94736842105263</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>1.3157894736842106</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>53.982300884955755</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>15.044247787610619</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>30.530973451327434</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>0.44247787610619471</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>46.753246753246756</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>47.402597402597401</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>1.948051948051948</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>3.8961038961038961</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>51.05263157894737</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>28.157894736842106</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>0.78947368421052633</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>19.736842105263158</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>0.26315789473684209</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>10.822510822510823</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>48.051948051948052</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>32.034632034632033</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>3.8961038961038961</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>5.1948051948051948</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>231</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>10.377358490566039</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>47.169811320754718</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>36.79245283018868</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>1.8867924528301887</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>3.7735849056603774</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>106</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>10.682492581602373</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>47.774480712166174</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>33.531157270029674</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>3.2640949554896141</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>4.7477744807121658</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>9.0163934426229506</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>47.540983606557376</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>37.704918032786885</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>5.7377049180327866</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>122</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>14</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>55.2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>24.8</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>4.8</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>1.2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>250</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>12.365591397849462</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>52.688172043010752</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>29.032258064516128</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>5.10752688172043</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>0.80645161290322576</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>27.659574468085108</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>53.191489361702125</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>17.021276595744681</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
         <v>2.1276595744680851</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>47</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>31.437125748502993</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>45.508982035928142</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>21.556886227544911</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>1.4970059880239521</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>334</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>30.971128608923884</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>46.45669291338583</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>20.99737532808399</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>1.3123359580052494</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>0.26246719160104987</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>2.6666666666666665</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>78</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>18</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>2.5423728813559321</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>54.66101694915254</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>41.101694915254235</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>1.271186440677966</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>0.42372881355932202</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>2.5906735751295336</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>63.730569948186528</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>32.124352331606218</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>1.0362694300518134</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>0.51813471502590669</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>11.578947368421053</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>41.578947368421055</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>39.473684210526315</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>5</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>2.3684210526315788</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>380</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>11.578947368421053</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>41.578947368421055</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>39.473684210526315</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>5</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>2.3684210526315788</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>31.578947368421051</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>36.842105263157897</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>18.421052631578949</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>38</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>28.402366863905325</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>54.142011834319526</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>7.1005917159763312</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>6.8047337278106506</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>3.5502958579881656</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>338</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>28.723404255319149</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>52.393617021276597</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>8.2446808510638299</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>6.9148936170212769</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>3.7234042553191489</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>36.206896551724135</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>55.172413793103445</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>6.3218390804597702</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>1.7241379310344827</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>0.57471264367816088</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>9.2896174863387984</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>71.038251366120221</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>19.125683060109289</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>0.54644808743169404</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>22.408963585434172</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>63.305322128851543</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>12.88515406162465</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>1.1204481792717087</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>0.28011204481792717</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>21.212121212121211</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>12.121212121212121</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>42.27642276422764</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>22.764227642276424</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>10.027100271002711</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>23.306233062330623</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.6260162601626016</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>369</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>41.542288557213929</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>23.631840796019901</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>10.945273631840797</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>22.388059701492537</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>1.4925373134328359</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>10.344827586206897</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>53.694581280788178</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>32.019704433497537</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>3.9408866995073892</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>17.222222222222221</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>48.333333333333336</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>27.777777777777779</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>5.5555555555555554</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.1111111111111112</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>13.577023498694517</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>51.174934725848566</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>30.026109660574413</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>4.6997389033942563</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>0.52219321148825071</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>9.8265895953757223</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>44.508670520231213</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>40.462427745664741</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>2.8901734104046244</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>2.3121387283236996</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>14.146341463414634</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>44.878048780487802</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>33.658536585365852</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>4.8780487804878048</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>2.4390243902439024</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>12.169312169312169</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>44.708994708994709</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>36.772486772486772</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>3.9682539682539684</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>2.3809523809523809</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>8.5106382978723403</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>44.148936170212764</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>42.021276595744681</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>5.3191489361702127</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>9.7938144329896915</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>44.845360824742265</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>42.783505154639172</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>2.0618556701030926</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>0.51546391752577314</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>194</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>9.1623036649214651</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>44.502617801047123</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>42.408376963350783</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>3.6649214659685865</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>0.26178010471204188</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>8.1504702194357375</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>3.761755485893417</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>0.31347962382445144</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>87.147335423197489</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>0.62695924764890287</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>319</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>33.87096774193548</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>32.258064516129032</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>4.838709677419355</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>29.032258064516128</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>12.335958005249344</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>8.3989501312335957</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>1.0498687664041995</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>77.690288713910761</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>0.52493438320209973</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>20.74468085106383</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>48.404255319148938</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>19.680851063829788</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>8.5106382978723403</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>2.6595744680851063</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>12.565445026178011</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>53.403141361256544</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>29.319371727748692</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>3.6649214659685865</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>1.0471204188481675</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>191</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>16.622691292875988</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>50.92348284960422</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>24.53825857519789</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>6.0686015831134563</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>1.8469656992084433</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>15.652173913043478</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>58.608695652173914</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>20.869565217391305</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>2.2608695652173911</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>2.6086956521739131</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>575</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>18.255728011825571</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>40.502586844050256</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>34.811529933481154</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>4.8780487804878048</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>1.5521064301552105</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1353</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>17.479253112033195</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>45.902489626556019</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>30.653526970954356</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>4.0975103734439831</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>1.8672199170124482</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1928</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>31.343283582089551</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>62.686567164179102</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>5.9701492537313436</v>
       </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>134</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>16.098484848484848</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>63.446969696969695</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>12.878787878787879</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>6.8181818181818183</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>0.75757575757575757</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>528</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>19.184290030211482</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>63.293051359516618</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>11.48036253776435</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>5.4380664652567976</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.60422960725075525</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>662</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>12.686567164179104</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>47.014925373134325</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>35.820895522388057</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>4.4776119402985071</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
         <v>134</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>13.157894736842104</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>50</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>30.526315789473685</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>5.7894736842105265</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>0.52631578947368418</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>190</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>12.962962962962964</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>48.76543209876543</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>32.716049382716051</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>5.2469135802469138</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>0.30864197530864196</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>31.877729257641921</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>39.301310043668124</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>19.650655021834062</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>8.7336244541484724</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>0.4366812227074236</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>229</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>18.032786885245901</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>51.639344262295083</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>22.950819672131146</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>7.3770491803278686</v>
       </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>27.065527065527064</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>43.589743589743591</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>20.797720797720796</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>8.2621082621082618</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>0.28490028490028491</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>14.838709677419354</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>44.516129032258064</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>36.12903225806452</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>2.5806451612903225</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>1.935483870967742</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>16.379310344827587</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>58.620689655172413</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>19.396551724137932</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>4.3103448275862073</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>1.2931034482758621</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>15.762273901808786</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>52.97157622739018</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>26.098191214470283</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>3.6175710594315245</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>1.5503875968992249</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>21.621621621621621</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>35.135135135135137</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>30.63063063063063</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>12.612612612612613</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>19.117647058823529</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>59.926470588235297</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>12.867647058823529</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>5.5147058823529411</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>2.5735294117647061</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>19.843342036553526</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>52.741514360313317</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>18.015665796344649</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>7.5718015665796345</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>1.8276762402088773</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
         <v>60</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>16.434540389972145</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>48.18941504178273</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>30.640668523676879</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>3.6211699164345403</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>1.1142061281337048</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>359</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>15.775401069518717</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>48.663101604278076</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>30.748663101604279</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>3.4759358288770055</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>1.3368983957219251</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>374</v>
       </c>
     </row>
